--- a/Document/CS673F16Team3_weeklyreport.xlsx
+++ b/Document/CS673F16Team3_weeklyreport.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Xiang Chen" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Weicheng Yu" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Dawei Li" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Yansen Liu" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Yuhao Wu" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Lu Min" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Chen Shou" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="Contribution" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Xiang Chen" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Weicheng Yu" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="Dawei Li" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Yansen Liu" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="Yuhao Wu" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="Lu Min" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="Chen Shou" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,10 +18,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="172">
   <si>
     <t>week #
  (from date - end date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StudentName </t>
   </si>
   <si>
     <t>Total actual time of this week tasks (h)</t>
@@ -69,63 +73,82 @@
     <t>Total estimated time</t>
   </si>
   <si>
+    <t>RequirementAnalysis on Pivotaltracker</t>
+  </si>
+  <si>
+    <t>Design Document (SDD)</t>
+  </si>
+  <si>
+    <t>Testing Documentation (STD)</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Implementation (code on Github)</t>
+  </si>
+  <si>
+    <t>Testing (unittest code on Github or manual testing)</t>
+  </si>
+  <si>
+    <t>Configuration and Deployment</t>
+  </si>
+  <si>
+    <t>General communication and management</t>
+  </si>
+  <si>
     <t>04/09 - 11/09</t>
   </si>
   <si>
+    <t>Yansen Liu</t>
+  </si>
+  <si>
     <t xml:space="preserve">discuss initial plan </t>
   </si>
   <si>
-    <t xml:space="preserve">0, gathered the tutorial for learning html, CSS, JQuery
-   learned basic html sytax. Had the ability to create a html and CSS based website.
-2,  gathered 20+ fun team names and project names online, to inspire myself
-     come up with the project name "return to_powerof_a", and the team name"Hello_world"
-5, set up slack channel and github repository. Come up with a github practice that ensures every team member is able to update the code
-    Github practice: update the README.md file with everyone's name and role </t>
-  </si>
-  <si>
     <t>0,2,5,6</t>
   </si>
   <si>
     <t>Xiang Chen</t>
   </si>
   <si>
+    <t>Write the first draft for all of the requirements
+most of them were changed by both me and other members</t>
+  </si>
+  <si>
+    <t>Software Architecture: describe the decomposition of your software system, diagram to show the whole architecture, and The interface of each component and dependency between components should also be described.
+Write 10 documents of Classes and Methods</t>
+  </si>
+  <si>
+    <t>Two testing matric:  
+add tags to story.
+adding new sprint</t>
+  </si>
+  <si>
+    <t>plan, work and present for presentation for itration0.
+plan, and help other members for preparing presentation for itration1(for front-end part and demo)
+plan, work and present for presentation for itration2(new feature and demo)</t>
+  </si>
+  <si>
     <t>12/09 - 19/09</t>
   </si>
   <si>
-    <t>0,1,2 ,5, 6 Writing SPPP Draft; 
-Learning PHP and SQL security; 
-Discusing requirements and features</t>
-  </si>
-  <si>
-    <t>SPPP Final Draft;
-Presentation;</t>
+    <t xml:space="preserve">commit:  Implement UI from Yansen
+    setting style and language for our front-end UI 
+    implementation front-end index(editing story finished by Weicheng)
+commit: change language setting by Yansen Liu 
+    change or delete some language setting for front-end
+commit: add new feature and language setting from Yansen Liu
+    add sort feature on web app(Weichen), add UI to display total number of storys. add advanced adding story feature, add tag feature on web app(Weicheng and me), add show/hide all description and quick edit description feature(me and Weicheng)
+commit: small UI and language changes from Yansen
+commit: email test from Yansen:
+    because of email matching problem, all of my commits before the commit "small UI and language changes from Yansen" cannot be show in Contributions on GITHUB </t>
+  </si>
+  <si>
+    <t>1,5,0 writing initial plan and prepare for presentation</t>
   </si>
   <si>
     <t>20/09 - 26/09</t>
-  </si>
-  <si>
-    <t>11/09 - 18/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0, 1, 2, 5, 6 Finalizing SPPP;
-Learning front end security issue;
-Discussion with Yansen about UI design;
-</t>
-  </si>
-  <si>
-    <t>1,5,0 writing initial plan and prepare for presentation</t>
-  </si>
-  <si>
-    <t>0, learn agile methodology. Find out what risks we will face, including management risks and technical risks.
-5, planning communication and management method, based on Scrum methology. Summerize basic concept and methods.</t>
-  </si>
-  <si>
-    <t>Inital implementation
-for Iteration 1 prototype;
-Security Document;</t>
-  </si>
-  <si>
-    <t>27/09 - 04/10</t>
   </si>
   <si>
     <t>discuss initial plan; 
@@ -137,44 +160,28 @@
 learn php and phpMyAdmin</t>
   </si>
   <si>
-    <t xml:space="preserve">0, 2, 5, 6 Writing Security Document;
-Learning php back end security issue;
-Discussion with Yansen about UI design;
-</t>
+    <t>write code review when add more feature and create new pull request</t>
   </si>
   <si>
     <t>1,2,3,5</t>
   </si>
   <si>
-    <t>Implement prototype for interation 1;</t>
-  </si>
-  <si>
-    <t>19/09-26/09</t>
-  </si>
-  <si>
-    <t>05/10 - 11/10</t>
-  </si>
-  <si>
-    <t>0, learn Scrum and XP programming methodology
-1, analyzed requirements, discussed priority of requirements
-    assign requirements on pivotaltracker
-    set priority to requirements
-5, created management plan, set deadline for each iteration
-6, do the presentation</t>
-  </si>
-  <si>
-    <t>0, 1, 2, 3, 5, 6
-Assist Yansen about three parts of UI we need for Sprint 1;
-Learn JQuery and PHP for finishing three User Stories;
-Choose three User Stories as Sprint 1 objective;</t>
+    <t>weekly meeting, 
+discuss with Weicheng about front-end implement and UI design
+discuss with Xiang Chen and Leader Dawei about the ideas and design about our app</t>
+  </si>
+  <si>
+    <t>xiang chen</t>
   </si>
   <si>
     <t>27/09-04/10</t>
   </si>
   <si>
-    <t>Prepare PPT for presentation;
-Finish up implementation for Sprint 1;
-Host weekly meeting when Dawei is not available</t>
+    <t>have weekly meeting to discuss the requirement with team members;
+write three basic user story on the pivottracker;
+write corresponding acceptance test and task;
+write corresponding tasks and tags for different user story;
+create UML diagram for each user story and upload to the google drive</t>
   </si>
   <si>
     <t>register domain name;
@@ -188,10 +195,175 @@
 create user story on the pivottracker;</t>
   </si>
   <si>
+    <t>Do research and figure out the Key Algorithms used in our project;
+Make presentation and graph to show our software architecture;
+Arrage and suggest tasks for each team member for different parts or work;
+Design software architecture of the whole project using LAMP;</t>
+  </si>
+  <si>
+    <t>0,1,2,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write introduction part of testing report;
+write details about testing summary in unit test,system test and acceptance test;
+do research and provide suggestion solutions for other team member for other parts;
+help fix bugs duirng the process of unit test and integration test;
+Present the integartion test for the iteration 2;
+Upload several integratio test code to github;
+Learn from Dawei to how to peform integartion test using Selenium in Eclipse
+</t>
+  </si>
+  <si>
+    <t>05/10 - 18/10</t>
+  </si>
+  <si>
+    <t>create issue on github;
+make code change about the front-end;
+create sql file and upload to github;
+write user story on the pivot tracker;
+learning php language
+solve domain issue</t>
+  </si>
+  <si>
+    <t>take part in the presentation in iteration one;
+complete configuration, architecture part of presentation in iteratione zero;
+discuss the presentation for iteration 2;
+make and prepare the presentation for iteration 2;
+Be responsible for the desing pattern, code review, deployment and architeture part of the presentation in iteration two;
+Take part in the presentation in the iteration two;
+Attend the  several meetings about discuss the presenation for interation 2 and make some meeting notes;</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>0,1,2 ,5, 6 Writing SPPP Draft; 
+Learning PHP and SQL security; 
+Discusing requirements and features</t>
+  </si>
+  <si>
+    <t>design front-end with html and css;
+write JQuery function for the web interface;
+fix front-end design bugs;
+enable front-end fit for mobile device;
+deploy database setting up script;
+help other team member solve coding bugs;
+Sync up with Yansen and Weicheng about the latest front-end design;
+Discuss the new features and potential issue for the web interface;</t>
+  </si>
+  <si>
+    <t>SPPP Final Draft;
+Presentation;</t>
+  </si>
+  <si>
+    <t>19/10 - 26/10</t>
+  </si>
+  <si>
+    <t>conclude feedback from professor and write record document;
+do research and find out solutions aobut how to make unit test and intergration test;
+discuss with QA leader about solution for improving testing part of the whole project;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1, 2, 5, 6 Finalizing SPPP;
+Learning front end security issue;
+Discussion with Yansen about UI design;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code review for several team members
+solve conficts on the github
+made code change for the front-end
+adjust the deployment of our website
+attend the meeting and discuss 
+figure out database issue 
+</t>
+  </si>
+  <si>
+    <t>Inital implementation
+for Iteration 1 prototype;
+Security Document;</t>
+  </si>
+  <si>
+    <t>set up github account;
+write github and git turtorial and teach team members;
+write code review for each pull request and code change;
+solve the merge conficts caused by untrackked commit;
+create issue and labels to clarify different parts of our project;
+code review for the database change;
+solve github rebase issue;
+write tutorial about merge several commits into one single commit;
+code review for the database desing setting up file;
+cod  review for the front-end code change for the new features;</t>
+  </si>
+  <si>
+    <t>27/09 - 04/10</t>
+  </si>
+  <si>
+    <t>0,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 2, 5, 6 Writing Security Document;
+Learning php back end security issue;
+Discussion with Yansen about UI design;
+</t>
+  </si>
+  <si>
+    <t>attend weekly meeting and disuss topics each week;
+contriute to write SPPP  report for iteration zero;
+write meeting reports and upate the team weekly report;
+discuss how to write SDD and STD (testing report);
+suggest diiferent parts of work to each team member</t>
+  </si>
+  <si>
+    <t>27/10 - 4/11</t>
+  </si>
+  <si>
+    <t>Implement prototype for interation 1;</t>
+  </si>
+  <si>
+    <t>Weicheng Yu</t>
+  </si>
+  <si>
+    <t>05/10 - 11/10</t>
+  </si>
+  <si>
+    <t>write software design document;
+write software testing document;
+code review for database change;
+write software arichtecture;
+code change on the back-end;</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 5, 6
+Assist Yansen about three parts of UI we need for Sprint 1;
+Learn JQuery and PHP for finishing three User Stories;
+Choose three User Stories as Sprint 1 objective;</t>
+  </si>
+  <si>
+    <t>Create three user stories associated with account;
+Refine all interation 2 user stories;
+We haven't used pivotaltracker well for Sprint 1 since we only
+implement 3 user stories;
+but we do understand pivotaltracker better now and plan to use
+it more int Sprint 2;
+Disscuss with group member about Sprint 2 user story during meeting;
+Create Interation 2 Userstory on pivitaltracker after meeting collecting everyone's idea;</t>
+  </si>
+  <si>
+    <t>Prepare PPT for presentation;
+Finish up implementation for Sprint 1;
+Host weekly meeting when Dawei is not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide one design pattern used in Javascript;
+</t>
+  </si>
+  <si>
     <t>12/10 - 18/10</t>
   </si>
   <si>
-    <t>0,1,2,4</t>
+    <t>Size oriented matric and explaination;
+Test cases</t>
   </si>
   <si>
     <t xml:space="preserve">0, 3, 5, 6
@@ -200,21 +372,253 @@
 </t>
   </si>
   <si>
+    <t>Present Sprint 1 presentation;
+Organzie and design Sprint 1 presentation;
+Present Sprint 2 presentation;
+Come up with Unit testing Slides;</t>
+  </si>
+  <si>
+    <t>8/11 - 14/11</t>
+  </si>
+  <si>
+    <t>Requirement Anaylze for Sprint 2;
+Refactor good and bad for Sprint 1;
+Implementation for Sprint 2;
+Securtiy Learning;</t>
+  </si>
+  <si>
+    <t>commit: implement front-end index.php
+not many commit because I pair programming with Yansen 
+and we let Xiang to commit for us initailly 
+since we do not know github very well;
+Most of time we just make changes locally 
+for front end and email each other(me and yansen) code;
+Implement point assignment for user story;
+Implement sort, search, new sprint feature in javascript;</t>
+  </si>
+  <si>
+    <t>We do manual testing for
+sprint 1 but we do intend to
+add Unit Testing for Sprint
+2
+Conduct Unit Tesing for JavaScript;
+Wrote 92 test cases using Jasime Framwork;</t>
+  </si>
+  <si>
+    <t>0, 1, 3, 5, 6
+Learn how to do unit test, integration test;
+Requirement analysis about Sprint 2;
+Refactor good and bad in Sprint1;
+Implement new Sprint user story of Sprint2;</t>
+  </si>
+  <si>
+    <t>Learn github and make first commit when we set up our github;</t>
+  </si>
+  <si>
+    <t>Implementation for Sprint 2 user story;
+Documentation;</t>
+  </si>
+  <si>
+    <t>attend weekly meeting;
+missed two meeting due to traffic;
+write the first meeting report;
+Be Team Leader when Dawei was not avaiable once;
+Take Implmentation Leader role when Yuhao is not available;</t>
+  </si>
+  <si>
+    <t>27/10 - 01/11</t>
+  </si>
+  <si>
+    <t>Dawei Li</t>
+  </si>
+  <si>
+    <t>0, 3, 4, 5, 6
+Learn unit text;
+Implement User Stroy about new Sprint;
+Fix bug in points assignment;
+Prepare ppt for presentation;</t>
+  </si>
+  <si>
+    <t>Analyzed Scrum methodology and combine the Scrum feature to our product.
+Discuss core requirement and teach the team what Scrum is.
+Keep the team within Scrum methodology. Act as Scrum master.
+Come up with the approach of "new Sprint" functionality. 
+Brainstorm with team mates to have  product backlog.
+Write 3 user stories.
+Corrected couple of requirements' format.
+Corrected some requirements which are not following Scrum methodology.</t>
+  </si>
+  <si>
+    <t>Keep the product following Scrum methodology.
+Create database structure by using ER diagram and DB schema</t>
+  </si>
+  <si>
+    <t>Prepare PPT for presentation;
+Implementation;</t>
+  </si>
+  <si>
+    <t>Created test cases template in Excel
+Write 3 test cases according product requirement
+Write testing code with Selenium 
+Finish all test cases by using Selenium(automatic test)</t>
+  </si>
+  <si>
+    <t>take part in the presentation for iteration 2 ;
+make tables and grahs for the presentation;
+code review for code change aobut adding new features;
+code review for code change about setting up database;
+learn with team member about integration test;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present ation iteration zero
+Practice with team mates before presentation to keep the presention time in 15 mins.
+Listen other team mates' presentation and give advices
+Write introduction, product motivation, summarize requirent analysis
+</t>
+  </si>
+  <si>
+    <t>Do pair programming with Weicheng
+Commit front end code by writing HTML5, CSS, Javascript
+Learn backend development: PHP 
+Commit backend code of database development
+Connect front end and backend by using PHP</t>
+  </si>
+  <si>
+    <t>Learn Unit testing</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Learn github and commit code frequently on github</t>
+  </si>
+  <si>
+    <t>Hold weekly meeting and assign works to team mates</t>
+  </si>
+  <si>
+    <t>Lu Min</t>
+  </si>
+  <si>
+    <t>Create user stories associated with creating user stories 
+description.
+Discuss user storiers needed to be added or deleted or 
+modified.
+Keep track of the update of user stories.</t>
+  </si>
+  <si>
+    <t>Complete test reports and add test cases I 
+encountered.
+Add descriptions and related tables to the testing 
+metrics.
+Add references.
+Make related testing metrics graphs.
+Record test cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present iteration one.
+Assign different parts of the sprint one presentation.
+Design and perform the presentation slides.
+Present testing part and defect management.
+Practice with teammates.
+Present iteration two.
+Prepare for the part I  need to present.
+</t>
+  </si>
+  <si>
+    <t>Learn about PHP and backend knowledges.
+Learn how to do PHP unist test and write the test code.</t>
+  </si>
+  <si>
+    <t>Learn different types of testing,
+Write test code,
+Implement unit testing,
+Implement functional testing,
+Start with usability testing to ask 
+some classmates to use our web
+app,
+Implement compatibility testing,
+Implement system testing,
+Write testing results document,
+Implement acceptance test,
+Report the usability test</t>
+  </si>
+  <si>
+    <t>Learn Github</t>
+  </si>
+  <si>
+    <t>Weekly meeting,
+Discuss with teammates about the whole
+design, back-end part and test part,
+Discuss with teammates how to present 
+sprint 1,
+Discuss with teammates to modify user  
+stories.
+Discuss with teammates how to present 
+spint 2.
+Discuss how to improve our testing part.
+Discuss how to adjust test.</t>
+  </si>
+  <si>
+    <t>Chen Shou</t>
+  </si>
+  <si>
+    <t>Created user story function implementation idea through brainstorm and team discussion. Discuss and implemented priority change function implementation idea with team member. Added database configuration file to connect with MySQL databse via phpAdmin. Corrected and rectified Priority Style format for bettern UI interface. Clarify with team about the definition and implementaion steps of user stories and clear distinction between Task and user story. Wrote 3 user stories and functioned successfully in the first iteration.</t>
+  </si>
+  <si>
+    <t>Base databse on basic ER diagram and prepared Databse relational definition for SQL Syntax implementation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created test reports for database function and revised database key setting for future work preparation. </t>
+  </si>
+  <si>
+    <t>Presentation of iteration one. Draw Schema relational diagram for Database illustration. Draw class diagram for future function planning especially for login and logout design. Prepare refactor example to better illustrate design ideas. Practice presention with team members and give out some insights about possible improvement methodologies.</t>
+  </si>
+  <si>
+    <t>Lean more about backend : PHP. Learn about phpAdmin for databse implementation. Learn how to connect to data through configuration setting. Commit database connection file : config.php on github.</t>
+  </si>
+  <si>
+    <t>Learn and write unit testing. Help to create automation integration testing.</t>
+  </si>
+  <si>
+    <t>Learn Git control</t>
+  </si>
+  <si>
+    <t>Each week attend weekly meeting and discussion. Meeting to discuss presentation for iteration 1.
+Write SPPP  report.
+Record meeting for meeting report.
+Discuss about database implentation with Xiang Chen.
+Make suggestions to make revision to backend implentaiton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, gathered the tutorial for learning html, CSS, JQuery
+   learned basic html sytax. Had the ability to create a html and CSS based website.
+2,  gathered 20+ fun team names and project names online, to inspire myself
+     come up with the project name "return to_powerof_a", and the team name"Hello_world"
+5, set up slack channel and github repository. Come up with a github practice that ensures every team member is able to update the code
+    Github practice: update the README.md file with everyone's name and role </t>
+  </si>
+  <si>
+    <t>11/09 - 18/09</t>
+  </si>
+  <si>
+    <t>0, learn agile methodology. Find out what risks we will face, including management risks and technical risks.
+5, planning communication and management method, based on Scrum methology. Summerize basic concept and methods.</t>
+  </si>
+  <si>
+    <t>19/09-26/09</t>
+  </si>
+  <si>
+    <t>0, learn Scrum and XP programming methodology
+1, analyzed requirements, discussed priority of requirements
+    assign requirements on pivotaltracker
+    set priority to requirements
+5, created management plan, set deadline for each iteration
+6, do the presentation</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,learned how to use MAMP to set up local host and do the test, learned PHP, HTML5, CSS, javascript
 1, come up with an aproach to realize the main function we need(how to asign backlogs to each sprint)
 </t>
-  </si>
-  <si>
-    <t>xiang chen</t>
-  </si>
-  <si>
-    <t>05/10 - 18/10</t>
-  </si>
-  <si>
-    <t>Requirement Anaylze for Sprint 2;
-Refactor good and bad for Sprint 1;
-Implementation for Spring 2;
-Securtiy Learning;</t>
   </si>
   <si>
     <t>05/10-11/10</t>
@@ -231,23 +635,67 @@
     <t>12/10-18/10</t>
   </si>
   <si>
-    <t>create issue on github;
-make code change about the front-end;
-create sql file and upload to github;
-write user story on the pivot tracker;
-learning php language
-solve domain issue</t>
-  </si>
-  <si>
     <t xml:space="preserve">3, programming frontend HTML and backend PHP
 5,    coordinate team members work flow and plan the development in the big picture
 </t>
   </si>
   <si>
-    <t>1,2,3,4</t>
+    <t>19/10-26/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, Pair programming with Weicheng and commit the code to github for HTML
+2, Design Database structure for product 
+    Draw ER diagram and Database Schema
+4, write 3 test case
+5, hold weekly meeting and assign work to teammates
+    </t>
+  </si>
+  <si>
+    <t>10/27-11/1</t>
   </si>
   <si>
     <t>making plan</t>
+  </si>
+  <si>
+    <t>0, Learn more about PHP, Database design, Database schema and ER diagram
+2, Draw ER diagram, 
+4, Learn Selenium integration testing tool; Write test code for test cases
+5, hold weekly meeting and assign work to teammates</t>
+  </si>
+  <si>
+    <t>11/2-11/8</t>
+  </si>
+  <si>
+    <t>4, write integration test for test cases
+5, summary works listen teamates presentation and give advice
+6, prepare presentation</t>
+  </si>
+  <si>
+    <t>design requirements in SPPP, design app</t>
+  </si>
+  <si>
+    <t>UI design, practice presentation, SPPP, logo design</t>
+  </si>
+  <si>
+    <t>UI design, set MAMP environment</t>
+  </si>
+  <si>
+    <t>UI design, front-end review and coding, user story design</t>
+  </si>
+  <si>
+    <t>prepare for presentation 2, front-end inplementation</t>
+  </si>
+  <si>
+    <t>front-end inplementation, change language setting for our web application</t>
+  </si>
+  <si>
+    <t>work on STD and SDD</t>
+  </si>
+  <si>
+    <t>02/11 - 08/11</t>
+  </si>
+  <si>
+    <t>plan, work and present for itration2 presentation</t>
   </si>
   <si>
     <t xml:space="preserve">0,1,2,5 Gathered for first meeting, discuss the overview
@@ -256,13 +704,7 @@
 </t>
   </si>
   <si>
-    <t>Yansen Liu</t>
-  </si>
-  <si>
     <t>0,1,2,5</t>
-  </si>
-  <si>
-    <t>design requirements in SPPP, design app</t>
   </si>
   <si>
     <t>0,1,2,5 Discuss requirements, designing interface, asking
@@ -275,16 +717,10 @@
     <t>1,2,5,6 Preparing presentation, task breakdown for implementation,</t>
   </si>
   <si>
-    <t>UI design, practice presentation, SPPP, logo design</t>
-  </si>
-  <si>
     <t>0,1,2,3,4,5</t>
   </si>
   <si>
     <t>27/09 - 4/10</t>
-  </si>
-  <si>
-    <t>UI design, set MAMP environment</t>
   </si>
   <si>
     <t>0,1,2,3,5 Learning about PHP myadmin, discussing requirements,
@@ -292,14 +728,8 @@
 code and SQL sentences.</t>
   </si>
   <si>
-    <t>UI design, front-end review and coding, user story design</t>
-  </si>
-  <si>
     <t>0,1,2,5 Design user stories and analysis the requirements again, 
 draw class diagram for futher development, mainly for database.</t>
-  </si>
-  <si>
-    <t>prepare for presentation 2, front-end inplementation</t>
   </si>
   <si>
     <t>0,2,3,4,5</t>
@@ -316,19 +746,10 @@
 requirenments.</t>
   </si>
   <si>
-    <t>0 - learning the product metrics and process metrics,1 - requirement analysis analyze how the quality metrics should involve and how can every design leader get involved ,2 - design for quality assurance steps and process</t>
-  </si>
-  <si>
-    <t>Start backend programming part and revise requirement analysis</t>
-  </si>
-  <si>
     <t>0,1,5
 discuss different project ideas,
 learn php,
 learn to use testing tools.</t>
-  </si>
-  <si>
-    <t>0 - learning NoSQL database 1- requirement analysis for database design and backend requirement analysis 2- design UML diagram</t>
   </si>
   <si>
     <t>0,1,3,5
@@ -346,9 +767,6 @@
 invited users</t>
   </si>
   <si>
-    <t>UML diagram finish and database creation</t>
-  </si>
-  <si>
     <t>0,1,4,5
 write test code,
 prepare interation one presentation,
@@ -356,6 +774,56 @@
 compatibility testing</t>
   </si>
   <si>
+    <t>19/10 - 25/10</t>
+  </si>
+  <si>
+    <t>0,3,4,5
+write test code,
+learn test knowledges,
+implement unit test,
+implement usability test,
+implement compatability test,
+write related document</t>
+  </si>
+  <si>
+    <t>26/10 - 1/11</t>
+  </si>
+  <si>
+    <t>0,3,4,5,6
+write test code,
+preprare for the usability test,
+update capatibility test,
+write related documents,
+learn acceptance test,
+learn to use codeception</t>
+  </si>
+  <si>
+    <t>2/11 - 8/11</t>
+  </si>
+  <si>
+    <t>0,3,4,5,6
+learn testing metrics,
+conduct usability test,
+report usability test,
+update capatibility test,
+write related documents,
+implement acceptance test,
+prepare for sprint2 presentation,
+generate test metrics results.</t>
+  </si>
+  <si>
+    <t>0 - learning the product metrics and process metrics,1 - requirement analysis analyze how the quality metrics should involve and how can every design leader get involved ,2 - design for quality assurance steps and process</t>
+  </si>
+  <si>
+    <t>Start backend programming part and revise requirement analysis</t>
+  </si>
+  <si>
+    <t>0 - learning NoSQL database 1- requirement analysis for database design and backend requirement analysis 2- design UML diagram</t>
+  </si>
+  <si>
+    <t>UML diagram finish and database creation</t>
+  </si>
+  <si>
     <t>0,1,2,3,5 Learning about PHP myadmin, discussing requirements,
 communicating programming skills, review and change database diagram and creatre new attributes</t>
   </si>
@@ -377,7 +845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -385,6 +853,9 @@
     </font>
     <font>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
     <font/>
     <font>
@@ -418,40 +889,64 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -501,7 +996,250 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="53.57"/>
+    <col customWidth="1" min="3" max="3" width="39.71"/>
+    <col customWidth="1" min="4" max="4" width="44.57"/>
+    <col customWidth="1" min="5" max="5" width="47.71"/>
+    <col customWidth="1" min="6" max="6" width="56.29"/>
+    <col customWidth="1" min="7" max="7" width="30.14"/>
+    <col customWidth="1" min="8" max="8" width="53.86"/>
+    <col customWidth="1" min="9" max="9" width="36.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" ht="63.0" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="34.5" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -525,43 +1263,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -576,42 +1314,42 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5">
         <v>6.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>4.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>2.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5">
         <v>2.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1.0</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="K2" s="4">
+      <c r="H2" s="5"/>
+      <c r="K2" s="5">
         <v>1.0</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="5">
         <v>10.0</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="6" t="s">
-        <v>18</v>
+      <c r="Q2" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -623,85 +1361,85 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
         <v>10.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>6.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>4.0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="5">
         <v>2.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>2.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>1.0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>1.0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>10.0</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>18</v>
+      <c r="Q3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="78.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
         <v>10.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>8.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>2.0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5">
         <v>1.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>1.0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>1.0</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
         <v>2.0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>2.0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>1.0</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="5">
         <v>10.0</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="6" t="s">
-        <v>18</v>
+      <c r="Q4" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -713,52 +1451,52 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" ht="49.5" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5">
         <v>12.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>10.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>2.0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5">
         <v>1.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>2.0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>2.0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>2.0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>1.0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>1.0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>1.0</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="5">
         <v>10.0</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="6" t="s">
-        <v>44</v>
+      <c r="Q5" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -770,51 +1508,53 @@
       <c r="Y5" s="3"/>
     </row>
     <row r="6" ht="34.5" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5">
         <v>10.0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>8.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>0.0</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>10.0</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -825,21 +1565,53 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="5">
+        <v>10.0</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -850,22 +1622,53 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="5">
+        <v>10.0</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -876,19 +1679,48 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="5">
+        <v>10.0</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -902,19 +1734,19 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -928,18 +1760,18 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -953,19 +1785,19 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -979,13 +1811,13 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -999,20 +1831,20 @@
       <c r="Y13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1026,15 +1858,15 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -1048,9 +1880,9 @@
       <c r="Y15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1064,12 +1896,12 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -1083,9 +1915,9 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1099,7 +1931,7 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1113,18 +1945,18 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -1138,15 +1970,15 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -1160,9 +1992,9 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1176,12 +2008,12 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1195,9 +2027,9 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -1211,7 +2043,7 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -1225,18 +2057,18 @@
       <c r="Y25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1250,15 +2082,15 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -1272,9 +2104,9 @@
       <c r="Y27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -1288,12 +2120,12 @@
       <c r="Y28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -1307,9 +2139,9 @@
       <c r="Y29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -1323,7 +2155,7 @@
       <c r="Y30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -1337,18 +2169,18 @@
       <c r="Y31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -1362,15 +2194,15 @@
       <c r="Y32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -1384,9 +2216,9 @@
       <c r="Y33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -1400,12 +2232,12 @@
       <c r="Y34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -1419,9 +2251,9 @@
       <c r="Y35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -1435,7 +2267,7 @@
       <c r="Y36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -1449,18 +2281,18 @@
       <c r="Y37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -1474,15 +2306,15 @@
       <c r="Y38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -1496,9 +2328,9 @@
       <c r="Y39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -1512,12 +2344,12 @@
       <c r="Y40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -1531,9 +2363,9 @@
       <c r="Y41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -1547,7 +2379,7 @@
       <c r="Y42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -1561,18 +2393,18 @@
       <c r="Y43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -1586,15 +2418,15 @@
       <c r="Y44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -1608,9 +2440,9 @@
       <c r="Y45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -1624,12 +2456,12 @@
       <c r="Y46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -1643,9 +2475,9 @@
       <c r="Y47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -1659,7 +2491,7 @@
       <c r="Y48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="4"/>
+      <c r="A49" s="5"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -1673,18 +2505,18 @@
       <c r="Y49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -1698,15 +2530,15 @@
       <c r="Y50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="A51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
@@ -1720,9 +2552,9 @@
       <c r="Y51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="A52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
@@ -1736,12 +2568,12 @@
       <c r="Y52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="A53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
@@ -1755,9 +2587,9 @@
       <c r="Y53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="A54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -1771,7 +2603,7 @@
       <c r="Y54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
+      <c r="A55" s="5"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
@@ -1785,18 +2617,18 @@
       <c r="Y55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="A56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -1810,15 +2642,15 @@
       <c r="Y56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="A57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -1832,9 +2664,9 @@
       <c r="Y57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="A58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
@@ -1848,12 +2680,12 @@
       <c r="Y58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="A59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -1867,9 +2699,9 @@
       <c r="Y59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="A60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
@@ -14068,7 +14900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14084,310 +14916,398 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5">
         <v>5.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>1.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>4.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5">
         <v>1.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>0.5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>0.0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>0.0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>1.5</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>0.0</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5">
         <v>4.0</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" ht="36.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
         <v>6.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>4.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>2.0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5">
         <v>2.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>1.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>1.0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>0.0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>0.0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>2.0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>0.0</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="5">
         <v>10.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
         <v>8.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>6.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>2.0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="5">
         <v>2.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>1.0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>2.0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0.0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>0.0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>2.0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>1.0</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="5">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5">
         <v>8.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>6.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>2.0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5">
         <v>3.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>0.0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>1.0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>0.0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>0.0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>2.0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>2.0</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="5">
         <v>8.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5">
         <v>8.0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>6.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>2.0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5">
         <v>1.0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>1.0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>1.0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>2.0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>0.0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>2.0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>1.0</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="M6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="5">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5">
         <v>10.0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>6.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>4.0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="5">
         <v>1.0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>0.0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>0.0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>3.0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>0.0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>4.0</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <v>2.0</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="M7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="5">
         <v>10.0</v>
       </c>
     </row>
@@ -14396,7 +15316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14410,47 +15330,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="14" t="s">
         <v>13</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -14465,49 +15385,49 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="12">
         <v>8.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="12">
         <v>4.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="12">
         <v>4.0</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="12">
         <v>2.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="12">
         <v>0.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="12">
         <v>1.0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="12">
         <v>0.0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="12">
         <v>0.0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="12">
         <v>1.0</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="16">
         <v>0.0</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="12">
         <v>8.0</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="12"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -14518,180 +15438,282 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="12">
         <v>14.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>10.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="12">
         <v>4.0</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="12">
         <v>5.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="12">
         <v>0.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="12">
         <v>0.0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="12">
         <v>0.0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="12">
         <v>0.0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="12">
         <v>5.0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="12">
         <v>0.0</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="12">
         <v>0.0</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" ht="59.25" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="12">
         <v>8.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="12">
         <v>6.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="12">
         <v>2.0</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="12">
         <v>1.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="12">
         <v>1.0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="12">
         <v>0.0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="12">
         <v>0.0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="12">
         <v>0.0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="12">
         <v>1.0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="12">
         <v>2.0</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="12">
         <v>0.0</v>
       </c>
+      <c r="N4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="12">
         <v>8.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="12">
         <v>6.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="12">
         <v>2.0</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="12">
         <v>4.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="12">
         <v>2.0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="12">
         <v>0.0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="12">
         <v>0.0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="12">
         <v>0.0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="12">
         <v>0.0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="12">
         <v>0.0</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="12">
         <v>0.0</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="12">
         <v>8.0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="12">
         <v>4.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="12">
         <v>4.0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="12">
         <v>1.0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="H6" s="17"/>
+      <c r="I6" s="12">
         <v>1.0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="12">
         <v>1.0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="12">
         <v>1.0</v>
       </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="12">
         <v>10.0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="12">
         <v>7.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="12">
         <v>3.0</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="E7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="12">
         <v>6.0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="J7" s="17"/>
+      <c r="K7" s="12">
         <v>1.0</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -14704,7 +15726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14730,616 +15752,401 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5">
         <v>6.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>2.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>4.0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="5">
         <v>2.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>0.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>1.0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>0.0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>0.0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>1.0</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="18">
         <v>0.0</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="5">
         <v>8.0</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="P2" s="4" t="s">
-        <v>55</v>
+      <c r="N2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
         <v>9.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>5.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>4.0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="5">
         <v>1.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>1.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>2.0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>0.0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>0.0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>1.0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>0.0</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
         <v>7.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>5.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>2.0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="5">
         <v>1.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>1.0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>2.0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0.0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>0.0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>1.0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>0.0</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5">
         <v>6.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>6.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>0.0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="5">
         <v>2.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>1.0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>1.0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>1.0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>0.0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>1.0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>0.0</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5">
         <v>9.0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>7.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>2.0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="5">
         <v>2.0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>1.0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>1.0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>2.0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>0.0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>1.0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5">
         <v>10.0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>8.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>4.0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="5">
         <v>1.0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="5">
         <v>0.0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="K7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="5">
         <v>1.0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="H8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="5">
         <v>4.0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="5">
         <v>0.0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="5">
         <v>2.0</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="5">
         <v>0.0</v>
       </c>
     </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(E2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="5" max="5" width="56.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C2" s="4">
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="5">
         <v>1.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="G9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="D10" s="5">
         <v>4.0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K10" s="5">
         <v>2.0</v>
       </c>
-      <c r="G2" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="L10" s="5">
         <v>0.0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="4">
-        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -15359,6 +16166,335 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="5" max="5" width="56.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="5" max="5" width="28.43"/>
   </cols>
   <sheetData>
@@ -15367,43 +16503,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -15418,145 +16554,238 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5">
         <v>10.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>6.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>4.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="5">
         <v>3.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1.0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>1.0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>1.0</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
         <v>6.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>4.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>2.0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="5">
         <v>2.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>1.0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5">
         <v>7.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>5.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>2.0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="5">
         <v>2.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>1.0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>1.0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5">
         <v>10.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>8.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>2.0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="5">
         <v>3.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>1.0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>2.0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="5">
         <v>13.0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>9.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>4.0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="5">
         <v>2.0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>1.0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>5.0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="L9" s="5">
         <v>1.0</v>
       </c>
     </row>
@@ -15565,7 +16794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15585,43 +16814,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -15636,175 +16865,175 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5">
         <v>9.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>5.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>4.0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="5">
         <v>1.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>2.0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>0.0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>0.0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>1.0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>0.0</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
+      <c r="M2" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
         <v>8.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>6.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>2.0</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="5">
         <v>2.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>1.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>2.0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>0.0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>0.0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>2.0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>1.0</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="5">
         <v>10.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="5">
         <v>6.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>4.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>2.0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="5">
         <v>1.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>2.0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>1.0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>1.0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>1.0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>0.0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>0.0</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" s="5">
         <v>10.0</v>
       </c>
     </row>
     <row r="5" ht="34.5" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="5">
         <v>10.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>6.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>0.0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="5">
         <v>1.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>3.0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>1.0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>1.0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>1.0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>1.0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>1.0</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5">
         <v>10.0</v>
       </c>
       <c r="O5" s="3"/>
@@ -15819,6 +17048,11 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
